--- a/public/shiftM.xlsx
+++ b/public/shiftM.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahevr/Desktop/works/project/js/sln/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF30430-E743-374B-A861-CC62391DA02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7406C251-473A-CA4E-AADB-F0B0951E1B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NİSAN SHIFT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,101 +83,101 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>1.04.2024</t>
-  </si>
-  <si>
-    <t>2.04.2024</t>
-  </si>
-  <si>
-    <t>3.04.2024</t>
-  </si>
-  <si>
-    <t>4.04.2024</t>
-  </si>
-  <si>
-    <t>5.04.2024</t>
-  </si>
-  <si>
-    <t>6.04.2024</t>
-  </si>
-  <si>
-    <t>7.04.2024</t>
-  </si>
-  <si>
-    <t>8.04.2024</t>
-  </si>
-  <si>
-    <t>9.04.2024</t>
-  </si>
-  <si>
-    <t>10.04.2024</t>
-  </si>
-  <si>
-    <t>11.04.2024</t>
-  </si>
-  <si>
-    <t>12.04.2024</t>
-  </si>
-  <si>
-    <t>13.04.2024</t>
-  </si>
-  <si>
-    <t>14.04.2024</t>
-  </si>
-  <si>
-    <t>15.04.2024</t>
-  </si>
-  <si>
-    <t>16.04.2024</t>
-  </si>
-  <si>
-    <t>17.04.2024</t>
-  </si>
-  <si>
-    <t>18.04.2024</t>
-  </si>
-  <si>
-    <t>19.04.2024</t>
-  </si>
-  <si>
-    <t>20.04.2024</t>
-  </si>
-  <si>
-    <t>21.04.2024</t>
-  </si>
-  <si>
-    <t>22.04.2024</t>
-  </si>
-  <si>
-    <t>23.04.2024</t>
-  </si>
-  <si>
-    <t>24.04.2024</t>
-  </si>
-  <si>
-    <t>25.04.2024</t>
-  </si>
-  <si>
-    <t>26.04.2024</t>
-  </si>
-  <si>
-    <t>27.04.2024</t>
-  </si>
-  <si>
-    <t>28.04.2024</t>
-  </si>
-  <si>
-    <t>29.04.2024</t>
-  </si>
-  <si>
-    <t>30.04.2024</t>
+    <t>01.04.2024 Pazartesi</t>
+  </si>
+  <si>
+    <t>02.04.2024 Salı</t>
+  </si>
+  <si>
+    <t>03.04.2024 Çarşamba</t>
+  </si>
+  <si>
+    <t>04.04.2024 Perşembe</t>
+  </si>
+  <si>
+    <t>05.04.2024 Cuma</t>
+  </si>
+  <si>
+    <t>06.04.2024 Cumartesi</t>
+  </si>
+  <si>
+    <t>07.04.2024 Pazar</t>
+  </si>
+  <si>
+    <t>08.04.2024 Pazartesi</t>
+  </si>
+  <si>
+    <t>09.04.2024 Salı</t>
+  </si>
+  <si>
+    <t>10.04.2024 Çarşamba</t>
+  </si>
+  <si>
+    <t>11.04.2024 Perşembe</t>
+  </si>
+  <si>
+    <t>12.04.2024 Cuma</t>
+  </si>
+  <si>
+    <t>13.04.2024 Cumartesi</t>
+  </si>
+  <si>
+    <t>14.04.2024 Pazar</t>
+  </si>
+  <si>
+    <t>15.04.2024 Pazartesi</t>
+  </si>
+  <si>
+    <t>16.04.2024 Salı</t>
+  </si>
+  <si>
+    <t>17.04.2024 Çarşamba</t>
+  </si>
+  <si>
+    <t>18.04.2024 Perşembe</t>
+  </si>
+  <si>
+    <t>19.04.2024 Cuma</t>
+  </si>
+  <si>
+    <t>20.04.2024 Cumartesi</t>
+  </si>
+  <si>
+    <t>21.04.2024 Pazar</t>
+  </si>
+  <si>
+    <t>22.04.2024 Pazartesi</t>
+  </si>
+  <si>
+    <t>23.04.2024 Salı</t>
+  </si>
+  <si>
+    <t>24.04.2024 Çarşamba</t>
+  </si>
+  <si>
+    <t>25.04.2024 Perşembe</t>
+  </si>
+  <si>
+    <t>26.04.2024 Cuma</t>
+  </si>
+  <si>
+    <t>27.04.2024 Cumartesi</t>
+  </si>
+  <si>
+    <t>28.04.2024 Pazar</t>
+  </si>
+  <si>
+    <t>29.04.2024 Pazartesi</t>
+  </si>
+  <si>
+    <t>30.04.2024 Salı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -200,6 +213,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -548,7 +567,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -625,6 +644,7 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -633,6 +653,7 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
@@ -641,6 +662,7 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -649,6 +671,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -657,6 +680,7 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
@@ -665,6 +689,7 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
@@ -673,6 +698,7 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
@@ -681,6 +707,7 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
@@ -689,6 +716,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -697,6 +725,7 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -705,6 +734,7 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
@@ -713,6 +743,7 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
@@ -721,6 +752,7 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
@@ -729,136 +761,154 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
+      <c r="C32" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/shiftM.xlsx
+++ b/public/shiftM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahevr/Desktop/works/project/js/sln/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7406C251-473A-CA4E-AADB-F0B0951E1B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7381198-74EE-F045-B904-4FE23FBC1527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NİSAN SHIFT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Sicil</t>
   </si>
@@ -81,103 +81,13 @@
   </si>
   <si>
     <t>OFF</t>
-  </si>
-  <si>
-    <t>01.04.2024 Pazartesi</t>
-  </si>
-  <si>
-    <t>02.04.2024 Salı</t>
-  </si>
-  <si>
-    <t>03.04.2024 Çarşamba</t>
-  </si>
-  <si>
-    <t>04.04.2024 Perşembe</t>
-  </si>
-  <si>
-    <t>05.04.2024 Cuma</t>
-  </si>
-  <si>
-    <t>06.04.2024 Cumartesi</t>
-  </si>
-  <si>
-    <t>07.04.2024 Pazar</t>
-  </si>
-  <si>
-    <t>08.04.2024 Pazartesi</t>
-  </si>
-  <si>
-    <t>09.04.2024 Salı</t>
-  </si>
-  <si>
-    <t>10.04.2024 Çarşamba</t>
-  </si>
-  <si>
-    <t>11.04.2024 Perşembe</t>
-  </si>
-  <si>
-    <t>12.04.2024 Cuma</t>
-  </si>
-  <si>
-    <t>13.04.2024 Cumartesi</t>
-  </si>
-  <si>
-    <t>14.04.2024 Pazar</t>
-  </si>
-  <si>
-    <t>15.04.2024 Pazartesi</t>
-  </si>
-  <si>
-    <t>16.04.2024 Salı</t>
-  </si>
-  <si>
-    <t>17.04.2024 Çarşamba</t>
-  </si>
-  <si>
-    <t>18.04.2024 Perşembe</t>
-  </si>
-  <si>
-    <t>19.04.2024 Cuma</t>
-  </si>
-  <si>
-    <t>20.04.2024 Cumartesi</t>
-  </si>
-  <si>
-    <t>21.04.2024 Pazar</t>
-  </si>
-  <si>
-    <t>22.04.2024 Pazartesi</t>
-  </si>
-  <si>
-    <t>23.04.2024 Salı</t>
-  </si>
-  <si>
-    <t>24.04.2024 Çarşamba</t>
-  </si>
-  <si>
-    <t>25.04.2024 Perşembe</t>
-  </si>
-  <si>
-    <t>26.04.2024 Cuma</t>
-  </si>
-  <si>
-    <t>27.04.2024 Cumartesi</t>
-  </si>
-  <si>
-    <t>28.04.2024 Pazar</t>
-  </si>
-  <si>
-    <t>29.04.2024 Pazartesi</t>
-  </si>
-  <si>
-    <t>30.04.2024 Salı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -220,8 +130,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,12 +163,6 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor rgb="FFC00000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -317,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,9 +254,16 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +485,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -638,274 +556,364 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
+      <c r="A3" s="13">
+        <v>45383</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
+      <c r="A4" s="13">
+        <v>45384</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
+      <c r="A5" s="13">
+        <v>45385</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="8"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
+      <c r="A6" s="13">
+        <v>45386</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
+      <c r="A7" s="13">
+        <v>45387</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>21</v>
+      <c r="A8" s="13">
+        <v>45388</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="8"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
+      <c r="A9" s="13">
+        <v>45389</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
+      <c r="A10" s="13">
+        <v>45390</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="8"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
+      <c r="A11" s="13">
+        <v>45391</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
+      <c r="A12" s="13">
+        <v>45392</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
+      <c r="A13" s="13">
+        <v>45393</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="8"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>27</v>
+      <c r="A14" s="13">
+        <v>45394</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>28</v>
+      <c r="A15" s="13">
+        <v>45395</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
+      <c r="A16" s="13">
+        <v>45396</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>45397</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>31</v>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>45398</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>45399</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>33</v>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
+        <v>45400</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>34</v>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
+        <v>45401</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>35</v>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
+        <v>45402</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>36</v>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
+        <v>45403</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>37</v>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
+        <v>45404</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>38</v>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>45405</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>39</v>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
+        <v>45406</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>40</v>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="13">
+        <v>45407</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>41</v>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
+        <v>45408</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
-        <v>42</v>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A29" s="13">
+        <v>45409</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
-        <v>43</v>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
+        <v>45410</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>44</v>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A31" s="13">
+        <v>45411</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>45</v>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A32" s="13">
+        <v>45412</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="I32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/public/shiftM.xlsx
+++ b/public/shiftM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahevr/Desktop/works/project/js/sln/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7381198-74EE-F045-B904-4FE23FBC1527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1406A56A-778D-7B4A-BF00-E8C6E9B6B254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/public/shiftM.xlsx
+++ b/public/shiftM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahevr/Desktop/works/project/js/sln/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1406A56A-778D-7B4A-BF00-E8C6E9B6B254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F37E73-EADE-A543-B2FD-974519A9B10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="-2580" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NİSAN SHIFT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>Sicil</t>
   </si>
@@ -87,7 +87,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -137,6 +140,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -228,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,10 +270,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,15 +493,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
@@ -555,23 +566,23 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>45383</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="10"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>45384</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>45414</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8"/>
@@ -579,11 +590,11 @@
       <c r="E4" s="10"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>45385</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>45415</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="8"/>
@@ -591,11 +602,11 @@
       <c r="E5" s="10"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>45386</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>45416</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="8"/>
@@ -603,23 +614,23 @@
       <c r="E6" s="10"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>45387</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>45417</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>45388</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>45418</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="8"/>
@@ -627,11 +638,11 @@
       <c r="E8" s="10"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>45389</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>45419</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8"/>
@@ -639,11 +650,11 @@
       <c r="E9" s="10"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>45390</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>45420</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="8"/>
@@ -651,11 +662,11 @@
       <c r="E10" s="10"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>45391</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>45421</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="8"/>
@@ -663,11 +674,11 @@
       <c r="E11" s="10"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>45392</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>45422</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8"/>
@@ -675,11 +686,11 @@
       <c r="E12" s="10"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>45393</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>45423</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="8"/>
@@ -687,23 +698,23 @@
       <c r="E13" s="10"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>45394</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>45424</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="11"/>
       <c r="E14" s="10"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>45395</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>45425</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8"/>
@@ -711,23 +722,23 @@
       <c r="E15" s="10"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>45396</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>45426</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>45397</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>45427</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8"/>
@@ -735,11 +746,11 @@
       <c r="E17" s="10"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>45398</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>45428</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="8"/>
@@ -747,11 +758,11 @@
       <c r="E18" s="10"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>45399</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>45429</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="8"/>
@@ -759,11 +770,11 @@
       <c r="E19" s="10"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>45400</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>45430</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="8"/>
@@ -771,11 +782,11 @@
       <c r="E20" s="10"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>45401</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>45431</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="8"/>
@@ -783,11 +794,11 @@
       <c r="E21" s="10"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
-        <v>45402</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>45432</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="8"/>
@@ -795,23 +806,23 @@
       <c r="E22" s="10"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
-        <v>45403</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>45433</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
-        <v>45404</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>45434</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8"/>
@@ -819,11 +830,11 @@
       <c r="E24" s="10"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>45405</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45435</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8"/>
@@ -831,11 +842,11 @@
       <c r="E25" s="10"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>45406</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45436</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="8"/>
@@ -843,11 +854,11 @@
       <c r="E26" s="10"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
-        <v>45407</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45437</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="8"/>
@@ -855,23 +866,23 @@
       <c r="E27" s="10"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <v>45408</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45438</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="10"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
-        <v>45409</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45439</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="8"/>
@@ -879,11 +890,11 @@
       <c r="E29" s="10"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
-        <v>45410</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45440</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="8"/>
@@ -891,11 +902,11 @@
       <c r="E30" s="10"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
-        <v>45411</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45441</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="8"/>
@@ -903,17 +914,25 @@
       <c r="E31" s="10"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
-        <v>45412</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45442</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="11"/>
       <c r="E32" s="10"/>
       <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/public/shiftM.xlsx
+++ b/public/shiftM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahevr/Desktop/works/project/js/sln/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F37E73-EADE-A543-B2FD-974519A9B10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2B0AFB-A5E7-6B40-9C9C-648A4FD7F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="-2580" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -272,7 +269,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
